--- a/TPs/TP1/TABLA20/AG_TP1_Torneo_c_Elitismo.xlsx
+++ b/TPs/TP1/TABLA20/AG_TP1_Torneo_c_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9521223316960383</v>
+        <v>0.4607424937064567</v>
       </c>
       <c r="C2">
-        <v>0.0007721069122088128</v>
+        <v>0.007332506421495208</v>
       </c>
       <c r="D2">
-        <v>0.2976345912052083</v>
+        <v>0.161185543189924</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9521223316960383</v>
+        <v>0.4612550993657136</v>
       </c>
       <c r="C3">
-        <v>0.151043314620949</v>
+        <v>0.2380095089225528</v>
       </c>
       <c r="D3">
-        <v>0.7419833036277241</v>
+        <v>0.3619203580592634</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9521223316960383</v>
+        <v>0.4685330580615356</v>
       </c>
       <c r="C4">
-        <v>0.9445144064133371</v>
+        <v>0.2573356762313319</v>
       </c>
       <c r="D4">
-        <v>0.9486939346050882</v>
+        <v>0.4414248176313474</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.952122389856318</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C5">
-        <v>0.948314554357415</v>
+        <v>0.4612499823348334</v>
       </c>
       <c r="D5">
-        <v>0.9517386023396197</v>
+        <v>0.4737738628085443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9525988984800019</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C6">
-        <v>0.9521186676019948</v>
+        <v>0.4632007181182178</v>
       </c>
       <c r="D6">
-        <v>0.9521696626772261</v>
+        <v>0.4745524990775513</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9525988984800019</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C7">
-        <v>0.8921134779211546</v>
+        <v>0.4685330746361564</v>
       </c>
       <c r="D7">
-        <v>0.9463061465461033</v>
+        <v>0.5092948731943518</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9525988984800019</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C8">
-        <v>0.952122389856318</v>
+        <v>0.4685384601284732</v>
       </c>
       <c r="D8">
-        <v>0.9525035967552651</v>
+        <v>0.5419049315396798</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9833434057184933</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C9">
-        <v>0.9525987821303402</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="D9">
-        <v>0.9572044637782856</v>
+        <v>0.5500567616964804</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9833434057184933</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C10">
-        <v>0.9525988984800019</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="D10">
-        <v>0.9679468333158858</v>
+        <v>0.5500567616964804</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9833434057184933</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="C11">
-        <v>0.9640708682353452</v>
+        <v>0.5486091643607577</v>
       </c>
       <c r="D11">
-        <v>0.9798244092907946</v>
+        <v>0.5499120019629082</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9833434057184933</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C12">
-        <v>0.2417066745378762</v>
+        <v>0.5500564080463883</v>
       </c>
       <c r="D12">
-        <v>0.9091733019442488</v>
+        <v>0.5512216706551404</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9833443514172029</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C13">
-        <v>0.9833434057184933</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="D13">
-        <v>0.9833436923834139</v>
+        <v>0.5535515946674876</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9833443514172029</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C14">
-        <v>0.9832838276165623</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="D14">
-        <v>0.9833375306582083</v>
+        <v>0.5582090847826359</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9833443514172029</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C15">
-        <v>0.5500257472918995</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="D15">
-        <v>0.9399882826020034</v>
+        <v>0.5617062049331711</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9833443514172029</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C16">
-        <v>0.7510600493254473</v>
+        <v>0.538529388772517</v>
       </c>
       <c r="D16">
-        <v>0.9593366722271265</v>
+        <v>0.5593885233171058</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9833443514172029</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C17">
-        <v>0.9756124445150169</v>
+        <v>0.5500567616964804</v>
       </c>
       <c r="D17">
-        <v>0.9825707824477734</v>
+        <v>0.560541260609502</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.984312985547192</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C18">
-        <v>0.922343588388807</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="D18">
-        <v>0.9774380019403612</v>
+        <v>0.5617062049331711</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.984312985547192</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C19">
-        <v>0.9823761941243728</v>
+        <v>0.5616833331378905</v>
       </c>
       <c r="D19">
-        <v>0.9837318527529145</v>
+        <v>0.5617039177536431</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.984312985547192</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C20">
-        <v>0.9814085136687019</v>
+        <v>0.5158408538627721</v>
       </c>
       <c r="D20">
-        <v>0.983925674946344</v>
+        <v>0.5525239862803758</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.984312985547192</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="C21">
-        <v>0.7519066131427091</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="D21">
-        <v>0.9602972622892614</v>
+        <v>0.5617062049331711</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9843130003310139</v>
+        <v>0.5617076344358377</v>
       </c>
       <c r="C22">
-        <v>0.5507502407964339</v>
+        <v>0.5617062049331712</v>
       </c>
       <c r="D22">
-        <v>0.9407327577243221</v>
+        <v>0.5617063478834379</v>
       </c>
     </row>
   </sheetData>
